--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>0.1631724333783333</v>
+        <v>0.04513856504688889</v>
       </c>
       <c r="R2">
-        <v>1.468551900405</v>
+        <v>0.406247085422</v>
       </c>
       <c r="S2">
-        <v>0.0001959366673888781</v>
+        <v>3.657414394655481E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001959366673888781</v>
+        <v>3.65741439465548E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.05898715085133333</v>
+        <v>0.04667070766644445</v>
       </c>
       <c r="R3">
-        <v>0.530884357662</v>
+        <v>0.420036368998</v>
       </c>
       <c r="S3">
-        <v>7.08314849345745E-05</v>
+        <v>3.781558360366546E-05</v>
       </c>
       <c r="T3">
-        <v>7.083148493457451E-05</v>
+        <v>3.781558360366545E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>18.02180414713967</v>
+        <v>20.36782088230855</v>
       </c>
       <c r="R4">
-        <v>162.196237324257</v>
+        <v>183.310387940777</v>
       </c>
       <c r="S4">
-        <v>0.02164049509967341</v>
+        <v>0.01650330736152947</v>
       </c>
       <c r="T4">
-        <v>0.02164049509967342</v>
+        <v>0.01650330736152946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>278.681984</v>
       </c>
       <c r="I5">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J5">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>6.03238119032889</v>
+        <v>2.109127184241778</v>
       </c>
       <c r="R5">
-        <v>54.29143071295999</v>
+        <v>18.982144658176</v>
       </c>
       <c r="S5">
-        <v>0.007243654104930093</v>
+        <v>0.001708949346482766</v>
       </c>
       <c r="T5">
-        <v>0.007243654104930094</v>
+        <v>0.001708949346482766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>2.180717489464889</v>
@@ -821,10 +821,10 @@
         <v>19.626457405184</v>
       </c>
       <c r="S6">
-        <v>0.002618594995220115</v>
+        <v>0.001766956377182302</v>
       </c>
       <c r="T6">
-        <v>0.002618594995220115</v>
+        <v>0.001766956377182302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>666.2546491595806</v>
+        <v>951.6989443953352</v>
       </c>
       <c r="R7">
-        <v>5996.291842436224</v>
+        <v>8565.290499558016</v>
       </c>
       <c r="S7">
-        <v>0.8000353545380694</v>
+        <v>0.7711271758404804</v>
       </c>
       <c r="T7">
-        <v>0.8000353545380695</v>
+        <v>0.7711271758404803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H8">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I8">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J8">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>1.148179910025556</v>
+        <v>0.5390397785366667</v>
       </c>
       <c r="R8">
-        <v>10.33361919023</v>
+        <v>4.851358006830001</v>
       </c>
       <c r="S8">
-        <v>0.001378728872735815</v>
+        <v>0.000436764403844909</v>
       </c>
       <c r="T8">
-        <v>0.001378728872735815</v>
+        <v>0.000436764403844909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H9">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I9">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J9">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>0.4150692623435556</v>
+        <v>0.5573364571633334</v>
       </c>
       <c r="R9">
-        <v>3.735623361092001</v>
+        <v>5.016028114470001</v>
       </c>
       <c r="S9">
-        <v>0.0004984131591062931</v>
+        <v>0.0004515895396714561</v>
       </c>
       <c r="T9">
-        <v>0.0004984131591062931</v>
+        <v>0.0004515895396714561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>126.8123115880958</v>
+        <v>243.2302765112117</v>
       </c>
       <c r="R10">
-        <v>1141.310804292862</v>
+        <v>2189.072488600905</v>
       </c>
       <c r="S10">
-        <v>0.1522756093171729</v>
+        <v>0.1970806811435076</v>
       </c>
       <c r="T10">
-        <v>0.1522756093171729</v>
+        <v>0.1970806811435076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H11">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I11">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J11">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N11">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q11">
-        <v>0.1045922339077778</v>
+        <v>0.02954341822177778</v>
       </c>
       <c r="R11">
-        <v>0.9413301051699997</v>
+        <v>0.265890763996</v>
       </c>
       <c r="S11">
-        <v>0.0001255938477005589</v>
+        <v>2.393796146585844E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001255938477005589</v>
+        <v>2.393796146585843E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H12">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I12">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J12">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.070426</v>
       </c>
       <c r="O12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q12">
-        <v>0.03781029522977777</v>
+        <v>0.03054621328488889</v>
       </c>
       <c r="R12">
-        <v>0.3402926570679999</v>
+        <v>0.274915919564</v>
       </c>
       <c r="S12">
-        <v>4.540241931144707E-05</v>
+        <v>2.475048997554903E-05</v>
       </c>
       <c r="T12">
-        <v>4.540241931144708E-05</v>
+        <v>2.475048997554902E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H13">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I13">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J13">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N13">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q13">
-        <v>11.55183333221089</v>
+        <v>13.33084137626511</v>
       </c>
       <c r="R13">
-        <v>103.966499989898</v>
+        <v>119.977572386386</v>
       </c>
       <c r="S13">
-        <v>0.01387138549375649</v>
+        <v>0.01080149780830957</v>
       </c>
       <c r="T13">
-        <v>0.01387138549375649</v>
+        <v>0.01080149780830956</v>
       </c>
     </row>
   </sheetData>
